--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -5,20 +5,24 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Greekn\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Greekn\VSCodeProjects\schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C970369-C0B1-4BED-8BDD-BB55897EEAE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF413AA-3413-4177-B918-B26AEC7C3DC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1590" yWindow="660" windowWidth="24990" windowHeight="14655" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3450" yWindow="4125" windowWidth="22920" windowHeight="10035" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="阅读条目" sheetId="1" r:id="rId1"/>
     <sheet name="阅读计划" sheetId="2" r:id="rId2"/>
     <sheet name="读物分类" sheetId="3" r:id="rId3"/>
+    <sheet name="阅读状态" sheetId="4" r:id="rId4"/>
+    <sheet name="公式" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">阅读条目!$A$1:$H$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">阅读条目!$A$1:$I$4</definedName>
+    <definedName name="计算超时时长">阅读计划!$I$3</definedName>
+    <definedName name="计算时长">阅读计划!$H$3</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
   <si>
     <t>深入刨析tomcat</t>
   </si>
@@ -140,7 +144,86 @@
     <t>算法第四版</t>
   </si>
   <si>
-    <t>2020/11/21 16:42</t>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未开始</t>
+  </si>
+  <si>
+    <t>未开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂停</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3背包队列和栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束但超时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总时长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超时时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算总时长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算超时时长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=IF(ISBLANK(G3),"未完成",TEXT(G3-E3,"d天h小时m分"))</t>
+    </r>
+  </si>
+  <si>
+    <t>=IF(AND(NOT(ISBLANK(G3)),(F3-G3)&gt;0),TEXT(F3-G3,"d天h小时m分"),"未超时")</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -151,7 +234,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,6 +249,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -175,7 +275,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -183,20 +283,323 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="标题 1" xfId="1" builtinId="16"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="20">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -472,127 +875,182 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.625" customWidth="1"/>
-    <col min="4" max="4" width="16.125" customWidth="1"/>
-    <col min="7" max="7" width="16.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.625" customWidth="1"/>
-    <col min="12" max="12" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="16.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="16.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="16.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="1"/>
+    <col min="13" max="13" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" s="4" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="J1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="3">
         <v>44156.487500000003</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="I2" s="2"/>
+      <c r="J2" s="1" t="str">
+        <f>IF(ISBLANK(I2),"未完成",TEXT(I2-G2,"d天h小时m分"))</f>
+        <v>未完成</v>
+      </c>
+      <c r="K2" s="1" t="str">
+        <f>IF(AND(NOT(ISBLANK(I2)),(H2-I2)&gt;0),TEXT(H2-I2,"d天h小时m分"),"未超时")</f>
+        <v>未超时</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="3">
         <v>44156.487500000003</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="I3" s="2"/>
+      <c r="J3" s="1" t="str">
+        <f t="shared" ref="J3:J4" si="0">IF(ISBLANK(I3),"未完成",TEXT(I3-G3,"d天h小时m分"))</f>
+        <v>未完成</v>
+      </c>
+      <c r="K3" s="1" t="str">
+        <f>IF(AND(NOT(ISBLANK(I3)),(H3-I3)&gt;0),TEXT(H3-I3,"d天h小时m分"),"未超时")</f>
+        <v>未超时</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="3">
         <v>44156.506944444445</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L8" s="1"/>
+      <c r="J4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>未完成</v>
+      </c>
+      <c r="K4" s="1" t="str">
+        <f>IF(AND(NOT(ISBLANK(I4)),(H4-I4)&gt;0),TEXT(H4-I4,"d天h小时m分"),"未超时")</f>
+        <v>未超时</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{837AECF6-E837-406F-B6B5-4F55E1064EA3}">
-      <formula1>"未开始,进行中,暂停,停止,结束"</formula1>
-    </dataValidation>
-  </dataValidations>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="expression" dxfId="6" priority="2">
+      <formula>$F1="进行中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1048576">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>IF(AND(NOT(ISBLANK(K1)),K1&lt;&gt;"未超时",K1&lt;&gt;"超时时间"),TRUE)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C658E2D5-51A3-45A0-AC3D-90FD735D6098}">
           <x14:formula1>
             <xm:f>读物分类!$A:$A</xm:f>
           </x14:formula1>
           <xm:sqref>C1:C1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CB475C87-273D-4296-8B33-FCE458B35A63}">
+          <x14:formula1>
+            <xm:f>阅读状态!$A:$A</xm:f>
+          </x14:formula1>
+          <xm:sqref>F1:F1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -602,73 +1060,131 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32145982-C062-4674-BADB-6A503C098778}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.125" customWidth="1"/>
-    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="1" max="1" width="15.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="H1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="1" t="str">
+        <f>IF(AND(NOT(ISBLANK(G2)),(F2-G2)&gt;0),TEXT(F2-G2,"d天h小时m分"),"未超时")</f>
+        <v>未超时</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3">
         <v>44156.527777777781</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="F3" s="2">
+        <v>44156.791666666664</v>
+      </c>
+      <c r="G3" s="2">
+        <v>44156.708333333336</v>
+      </c>
+      <c r="H3" s="1" t="str">
+        <f>IF(ISBLANK(G3),"未完成",TEXT(G3-E3,"d天h小时m分"))</f>
+        <v>0天4小时20分</v>
+      </c>
+      <c r="I3" s="1" t="str">
+        <f>IF(AND(NOT(ISBLANK(G3)),(F3-G3)&gt;0),TEXT(F3-G3,"d天h小时m分"),"未超时")</f>
+        <v>0天2小时0分</v>
+      </c>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$D1="进行中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>IF(AND(NOT(ISBLANK(G1)),I1&lt;&gt;"未超时",I1&lt;&gt;"超时时间"),TRUE)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FDA7D883-3471-4443-9314-6931AC7358F7}">
           <x14:formula1>
             <xm:f>阅读条目!$A:$A</xm:f>
           </x14:formula1>
           <xm:sqref>A1:A1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9BF35D91-7D4A-45E8-8074-B5330F81D66A}">
+          <x14:formula1>
+            <xm:f>阅读状态!$A:$A</xm:f>
+          </x14:formula1>
+          <xm:sqref>D1:D1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -728,4 +1244,95 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3A7F2B-271A-47FC-805E-3637AE8A75A7}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E96A4EA-1076-4997-8524-3D97C5B9F264}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="66.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -2,27 +2,29 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Greekn\VSCodeProjects\schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF413AA-3413-4177-B918-B26AEC7C3DC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5775A06E-6394-46CA-931D-EBB610DC9535}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3450" yWindow="4125" windowWidth="22920" windowHeight="10035" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="阅读条目" sheetId="1" r:id="rId1"/>
-    <sheet name="阅读计划" sheetId="2" r:id="rId2"/>
-    <sheet name="读物分类" sheetId="3" r:id="rId3"/>
-    <sheet name="阅读状态" sheetId="4" r:id="rId4"/>
-    <sheet name="公式" sheetId="5" r:id="rId5"/>
+    <sheet name="总计划" sheetId="6" r:id="rId1"/>
+    <sheet name="阅读条目" sheetId="1" r:id="rId2"/>
+    <sheet name="阅读计划" sheetId="2" r:id="rId3"/>
+    <sheet name="读物分类" sheetId="3" r:id="rId4"/>
+    <sheet name="阅读状态" sheetId="4" r:id="rId5"/>
+    <sheet name="公式" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">阅读条目!$A$1:$I$4</definedName>
-    <definedName name="计算超时时长">阅读计划!$I$3</definedName>
-    <definedName name="计算时长">阅读计划!$H$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">阅读条目!$A$1:$I$4</definedName>
+    <definedName name="计算超时时长">阅读计划!$I$2</definedName>
+    <definedName name="计算时长">阅读计划!$H$2</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,12 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="90">
   <si>
     <t>深入刨析tomcat</t>
-  </si>
-  <si>
-    <t>深入刨析tomcat</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -176,10 +175,6 @@
   </si>
   <si>
     <t>1基础</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3背包队列和栈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -224,6 +219,183 @@
   </si>
   <si>
     <t>=IF(AND(NOT(ISBLANK(G3)),(F3-G3)&gt;0),TEXT(F3-G3,"d天h小时m分"),"未超时")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阅读总体计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超时原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3背包队列和栈练习题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打电话占用时间太久</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4算法分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束但超时</t>
+  </si>
+  <si>
+    <t>head first设计模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子书</t>
+  </si>
+  <si>
+    <t>心法,设计模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计模式就该这样学</t>
+  </si>
+  <si>
+    <t>设计模式就该这样学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4行为模式设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21责任链模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baidunyun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月考</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语文110
+数学105
+英语120
+历史75
+政治75
+地理70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛津高阶英汉双解词典</t>
+  </si>
+  <si>
+    <t>牛津高阶英汉双解词典</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次10页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1初级排序算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束</t>
+  </si>
+  <si>
+    <t>停止</t>
+  </si>
+  <si>
+    <t>深入刨析tomcat</t>
+  </si>
+  <si>
+    <t>17启动tomcat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>classloader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手册及教程</t>
+  </si>
+  <si>
+    <t>深入理解jvm虚拟机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring源码深度解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>redis深度历险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql技术内幕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kafka核心设计与实现原理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -299,7 +471,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -319,92 +491,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="标题 1" xfId="1" builtinId="16"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <bottom style="hair">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <bottom style="hair">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <bottom style="hair">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -444,7 +545,6 @@
         <right style="hair">
           <color auto="1"/>
         </right>
-        <top/>
         <bottom style="hair">
           <color auto="1"/>
         </bottom>
@@ -456,148 +556,6 @@
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom style="hair">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom style="hair">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom style="hair">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom style="hair">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom style="hair">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom style="hair">
-          <color auto="1"/>
-        </bottom>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -874,80 +832,135 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4EBA462-769D-431E-8B6F-71E0341B84AE}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="16.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="14.375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="11.625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="16.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9" style="1"/>
+    <col min="8" max="8" width="17.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="J1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>42</v>
+      <c r="L1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G2" s="3">
         <v>44156.487500000003</v>
@@ -964,49 +977,54 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1">
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G3" s="3">
         <v>44156.487500000003</v>
       </c>
-      <c r="I3" s="2"/>
+      <c r="H3" s="3">
+        <v>44156.791666666664</v>
+      </c>
+      <c r="I3" s="2">
+        <v>44156.833333333336</v>
+      </c>
       <c r="J3" s="1" t="str">
-        <f t="shared" ref="J3:J4" si="0">IF(ISBLANK(I3),"未完成",TEXT(I3-G3,"d天h小时m分"))</f>
-        <v>未完成</v>
+        <f t="shared" ref="J3:J7" si="0">IF(ISBLANK(I3),"未完成",TEXT(I3-G3,"d天h小时m分"))</f>
+        <v>0天8小时18分</v>
       </c>
       <c r="K3" s="1" t="str">
-        <f>IF(AND(NOT(ISBLANK(I3)),(H3-I3)&gt;0),TEXT(H3-I3,"d天h小时m分"),"未超时")</f>
-        <v>未超时</v>
+        <f>IF(AND(NOT(ISBLANK(I3)),(H3-I3)&lt;0),TEXT(I3-H3,"d天h小时m分"),"未超时")</f>
+        <v>0天1小时0分</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1">
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G4" s="3">
         <v>44156.506944444445</v>
@@ -1020,18 +1038,131 @@
         <v>未超时</v>
       </c>
     </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="1">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="1">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="3">
+        <v>44156.967361111114</v>
+      </c>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="1">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="3">
+        <v>44157.73541666667</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$F1="进行中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>IF(AND(NOT(ISBLANK(K1)),K1&lt;&gt;"未超时",K1&lt;&gt;"超时时间"),TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1058,114 +1189,250 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32145982-C062-4674-BADB-6A503C098778}">
-  <dimension ref="A1:J4"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="19.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="4" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="H1" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>55</v>
+      </c>
+      <c r="E2" s="3">
+        <v>44156.628472222219</v>
+      </c>
+      <c r="F2" s="2">
+        <v>44156.791666666664</v>
+      </c>
+      <c r="G2" s="2">
+        <v>44156.842361111114</v>
+      </c>
+      <c r="H2" s="1" t="str">
+        <f>IF(ISBLANK(G2),"未完成",TEXT(G2-E2,"d天h小时m分"))</f>
+        <v>0天5小时8分</v>
       </c>
       <c r="I2" s="1" t="str">
-        <f>IF(AND(NOT(ISBLANK(G2)),(F2-G2)&gt;0),TEXT(F2-G2,"d天h小时m分"),"未超时")</f>
-        <v>未超时</v>
+        <f t="shared" ref="I2:I3" si="0">IF(AND(NOT(ISBLANK(G2)),NOT(ISBLANK(F2)),(F2-G2)&lt;0),TEXT(G2-F2,"d天h小时m分"),"未超时")</f>
+        <v>0天1小时13分</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="3">
-        <v>44156.527777777781</v>
+        <v>55</v>
+      </c>
+      <c r="E3" s="2">
+        <v>44156.845833333333</v>
       </c>
       <c r="F3" s="2">
-        <v>44156.791666666664</v>
+        <v>44156.9375</v>
       </c>
       <c r="G3" s="2">
-        <v>44156.708333333336</v>
+        <v>44156.947222222225</v>
       </c>
       <c r="H3" s="1" t="str">
         <f>IF(ISBLANK(G3),"未完成",TEXT(G3-E3,"d天h小时m分"))</f>
-        <v>0天4小时20分</v>
+        <v>0天2小时26分</v>
       </c>
       <c r="I3" s="1" t="str">
-        <f>IF(AND(NOT(ISBLANK(G3)),(F3-G3)&gt;0),TEXT(F3-G3,"d天h小时m分"),"未超时")</f>
-        <v>0天2小时0分</v>
-      </c>
-      <c r="J3" s="3"/>
+        <f t="shared" si="0"/>
+        <v>0天0小时14分</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="A4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="2">
+        <v>44156.968055555553</v>
+      </c>
+      <c r="G4" s="2">
+        <v>44157.730555555558</v>
+      </c>
+      <c r="H4" s="1" t="str">
+        <f>IF(ISBLANK(G4),"未完成",TEXT(G4-E4,"d天h小时m分"))</f>
+        <v>0天18小时18分</v>
+      </c>
+      <c r="I4" s="1" t="str">
+        <f>IF(AND(NOT(ISBLANK(G4)),NOT(ISBLANK(F4)),(F4-G4)&lt;0),TEXT(G4-F4,"d天h小时m分"),"未超时")</f>
+        <v>未超时</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="2">
+        <v>44157.770833333336</v>
+      </c>
+      <c r="F5" s="2">
+        <v>44157.875</v>
+      </c>
+      <c r="G5" s="2">
+        <v>44157.875</v>
+      </c>
+      <c r="H5" s="1" t="str">
+        <f>IF(ISBLANK(G5),"未完成",TEXT(G5-E5,"d天h小时m分"))</f>
+        <v>0天2小时30分</v>
+      </c>
+      <c r="I5" s="1" t="str">
+        <f>IF(AND(NOT(ISBLANK(G5)),NOT(ISBLANK(F5)),(F5-G5)&lt;0),TEXT(G5-F5,"d天h小时m分"),"未超时")</f>
+        <v>未超时</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="2">
+        <v>44157.882638888892</v>
+      </c>
+      <c r="F6" s="2">
+        <v>44157.90347222222</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="1" t="str">
+        <f t="shared" ref="H6:H7" si="1">IF(ISBLANK(G6),"未完成",TEXT(G6-E6,"d天h小时m分"))</f>
+        <v>未完成</v>
+      </c>
+      <c r="I6" s="1" t="str">
+        <f t="shared" ref="I6:I7" si="2">IF(AND(NOT(ISBLANK(G6)),NOT(ISBLANK(F6)),(F6-G6)&lt;0),TEXT(G6-F6,"d天h小时m分"),"未超时")</f>
+        <v>未超时</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44157.921527777777</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2">
+        <v>44157.994444444441</v>
+      </c>
+      <c r="H7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0天1小时45分</v>
+      </c>
+      <c r="I7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>未超时</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>$D1="进行中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>IF(AND(NOT(ISBLANK(G1)),I1&lt;&gt;"未超时",I1&lt;&gt;"超时时间"),TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1192,12 +1459,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07BCABE6-46A7-4515-A1C2-A6CDBEB34C65}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1207,37 +1475,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1246,12 +1514,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3A7F2B-271A-47FC-805E-3637AE8A75A7}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1261,37 +1530,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1301,8 +1570,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E96A4EA-1076-4997-8524-3D97C5B9F264}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1317,22 +1587,64 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D964F1E6-530E-4264-AFE2-DD423212B3D4}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
+        <v>44157.587500000001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Greekn\VSCodeProjects\schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Greekn\VSCodeProjects\reading-schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5775A06E-6394-46CA-931D-EBB610DC9535}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFC8C83-BFEA-428C-BC24-626D92018D81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总计划" sheetId="6" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="95">
   <si>
     <t>深入刨析tomcat</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -396,6 +396,25 @@
   </si>
   <si>
     <t>kafka核心设计与实现原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java并发编程实战</t>
+  </si>
+  <si>
+    <t>java并发编程实战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2线程安全性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1基础知识</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -509,25 +528,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom style="hair">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -556,6 +556,25 @@
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -881,10 +900,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1001,7 +1020,7 @@
         <v>44156.833333333336</v>
       </c>
       <c r="J3" s="1" t="str">
-        <f t="shared" ref="J3:J7" si="0">IF(ISBLANK(I3),"未完成",TEXT(I3-G3,"d天h小时m分"))</f>
+        <f t="shared" ref="J3:J4" si="0">IF(ISBLANK(I3),"未完成",TEXT(I3-G3,"d天h小时m分"))</f>
         <v>0天8小时18分</v>
       </c>
       <c r="K3" s="1" t="str">
@@ -1154,15 +1173,35 @@
         <v>89</v>
       </c>
     </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="1">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="3">
+        <v>44159.82708333333</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>$F1="进行中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>IF(AND(NOT(ISBLANK(K1)),K1&lt;&gt;"未超时",K1&lt;&gt;"超时时间"),TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1192,10 +1231,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32145982-C062-4674-BADB-6A503C098778}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1390,11 +1429,11 @@
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="1" t="str">
-        <f t="shared" ref="H6:H7" si="1">IF(ISBLANK(G6),"未完成",TEXT(G6-E6,"d天h小时m分"))</f>
+        <f t="shared" ref="H6:H8" si="1">IF(ISBLANK(G6),"未完成",TEXT(G6-E6,"d天h小时m分"))</f>
         <v>未完成</v>
       </c>
       <c r="I6" s="1" t="str">
-        <f t="shared" ref="I6:I7" si="2">IF(AND(NOT(ISBLANK(G6)),NOT(ISBLANK(F6)),(F6-G6)&lt;0),TEXT(G6-F6,"d天h小时m分"),"未超时")</f>
+        <f t="shared" ref="I6:I8" si="2">IF(AND(NOT(ISBLANK(G6)),NOT(ISBLANK(F6)),(F6-G6)&lt;0),TEXT(G6-F6,"d天h小时m分"),"未超时")</f>
         <v>未超时</v>
       </c>
     </row>
@@ -1424,15 +1463,46 @@
         <v>未超时</v>
       </c>
     </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="2">
+        <v>44159.82708333333</v>
+      </c>
+      <c r="F8" s="2">
+        <v>44159.9375</v>
+      </c>
+      <c r="G8" s="2">
+        <v>44159.929166666669</v>
+      </c>
+      <c r="H8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0天2小时27分</v>
+      </c>
+      <c r="I8" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>未超时</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$D1="进行中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>IF(AND(NOT(ISBLANK(G1)),I1&lt;&gt;"未超时",I1&lt;&gt;"超时时间"),TRUE)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Greekn\VSCodeProjects\reading-schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFC8C83-BFEA-428C-BC24-626D92018D81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152D2125-F1CF-4E38-AC63-BEFEE928AD61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="1455" windowWidth="19920" windowHeight="12675" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总计划" sheetId="6" r:id="rId1"/>
-    <sheet name="阅读条目" sheetId="1" r:id="rId2"/>
-    <sheet name="阅读计划" sheetId="2" r:id="rId3"/>
+    <sheet name="条目" sheetId="1" r:id="rId2"/>
+    <sheet name="计划" sheetId="2" r:id="rId3"/>
     <sheet name="读物分类" sheetId="3" r:id="rId4"/>
     <sheet name="阅读状态" sheetId="4" r:id="rId5"/>
     <sheet name="公式" sheetId="5" r:id="rId6"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">阅读条目!$A$1:$I$4</definedName>
-    <definedName name="计算超时时长">阅读计划!$I$2</definedName>
-    <definedName name="计算时长">阅读计划!$H$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">计划!$A$1:$J$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">条目!$A$1:$I$4</definedName>
+    <definedName name="计算超时时长">计划!$I$2</definedName>
+    <definedName name="计算时长">计划!$H$2</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="99">
   <si>
     <t>深入刨析tomcat</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -415,6 +416,21 @@
   </si>
   <si>
     <t>1基础知识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java编程思想</t>
+  </si>
+  <si>
+    <t>java编程思想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21并发</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -900,10 +916,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1191,6 +1207,20 @@
       </c>
       <c r="G14" s="3">
         <v>44159.82708333333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="1">
+        <v>22</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1231,10 +1261,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32145982-C062-4674-BADB-6A503C098778}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1429,11 +1459,11 @@
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="1" t="str">
-        <f t="shared" ref="H6:H8" si="1">IF(ISBLANK(G6),"未完成",TEXT(G6-E6,"d天h小时m分"))</f>
+        <f t="shared" ref="H6:H9" si="1">IF(ISBLANK(G6),"未完成",TEXT(G6-E6,"d天h小时m分"))</f>
         <v>未完成</v>
       </c>
       <c r="I6" s="1" t="str">
-        <f t="shared" ref="I6:I8" si="2">IF(AND(NOT(ISBLANK(G6)),NOT(ISBLANK(F6)),(F6-G6)&lt;0),TEXT(G6-F6,"d天h小时m分"),"未超时")</f>
+        <f t="shared" ref="I6:I9" si="2">IF(AND(NOT(ISBLANK(G6)),NOT(ISBLANK(F6)),(F6-G6)&lt;0),TEXT(G6-F6,"d天h小时m分"),"未超时")</f>
         <v>未超时</v>
       </c>
     </row>
@@ -1490,6 +1520,31 @@
         <v>0天2小时27分</v>
       </c>
       <c r="I8" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>未超时</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="2">
+        <v>44161.849305555559</v>
+      </c>
+      <c r="G9" s="2">
+        <v>44163.890972222223</v>
+      </c>
+      <c r="H9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2天1小时0分</v>
+      </c>
+      <c r="I9" s="1" t="str">
         <f t="shared" si="2"/>
         <v>未超时</v>
       </c>
@@ -1513,7 +1568,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FDA7D883-3471-4443-9314-6931AC7358F7}">
           <x14:formula1>
-            <xm:f>阅读条目!$A:$A</xm:f>
+            <xm:f>条目!$A:$A</xm:f>
           </x14:formula1>
           <xm:sqref>A1:A1048576</xm:sqref>
         </x14:dataValidation>
